--- a/Rita.xlsx
+++ b/Rita.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\Desktop\PMP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\Desktop\PMP notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89CA00E-42C3-4B24-8739-CBA92410A223}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B717F2C-8B2C-43C1-9B43-9BA683EAB054}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{99F46A39-5645-4697-9E73-6F7BE1DCAA9D}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>A</t>
   </si>
@@ -79,13 +79,7 @@
     <t>Average</t>
   </si>
   <si>
-    <t>A?</t>
-  </si>
-  <si>
     <t>C?</t>
-  </si>
-  <si>
-    <t>B?</t>
   </si>
 </sst>
 </file>
@@ -442,7 +436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3030CC-CC24-4633-BFB1-A8365FA28A67}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
@@ -456,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -464,7 +458,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -472,10 +466,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -483,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -491,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
@@ -510,10 +501,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -521,7 +509,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -529,10 +520,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -540,7 +528,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -548,7 +539,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -556,7 +547,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -564,9 +555,6 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -583,7 +571,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -591,10 +582,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -602,9 +590,6 @@
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -613,10 +598,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -624,10 +606,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -635,176 +617,98 @@
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>21</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>22</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>23</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>24</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>25</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>26</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>27</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>28</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>29</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>30</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>31</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>32</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>33</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>34</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>35</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>36</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>37</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>38</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
@@ -848,8 +752,8 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C47" s="1">
-        <f>(38-17)/38</f>
-        <v>0.55263157894736847</v>
+        <f>(20-5)/20</f>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -862,7 +766,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -904,18 +808,24 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="N4" t="e">
+      <c r="B4">
+        <v>0.75</v>
+      </c>
+      <c r="N4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="N5" t="e">
+      <c r="B5">
+        <v>0.6</v>
+      </c>
+      <c r="N5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -973,9 +883,12 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="N11" t="e">
+      <c r="B11">
+        <v>0.75</v>
+      </c>
+      <c r="N11">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/Rita.xlsx
+++ b/Rita.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\Desktop\PMP notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP862AR\OneDrive - EY\Desktop\PMP_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B717F2C-8B2C-43C1-9B43-9BA683EAB054}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{99F46A39-5645-4697-9E73-6F7BE1DCAA9D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Knowledge Areas" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="18">
   <si>
     <t>A</t>
   </si>
@@ -80,12 +79,18 @@
   </si>
   <si>
     <t>C?</t>
+  </si>
+  <si>
+    <t>B?</t>
+  </si>
+  <si>
+    <t>D?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -433,10 +438,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3030CC-CC24-4633-BFB1-A8365FA28A67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
@@ -458,7 +463,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -466,7 +471,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -474,7 +479,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -484,9 +492,6 @@
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -501,7 +506,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -509,7 +514,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>0</v>
@@ -520,7 +525,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -528,10 +533,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -539,6 +541,9 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -547,7 +552,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -563,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -571,10 +576,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -582,7 +584,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -590,7 +592,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -598,7 +600,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -606,10 +608,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -617,6 +619,9 @@
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -624,71 +629,131 @@
       <c r="A21" s="1">
         <v>21</v>
       </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>22</v>
       </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>23</v>
       </c>
+      <c r="B23" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>24</v>
       </c>
+      <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>25</v>
       </c>
+      <c r="B25" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>26</v>
       </c>
+      <c r="B26" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>27</v>
       </c>
+      <c r="B27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>28</v>
       </c>
+      <c r="B28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>29</v>
       </c>
+      <c r="B29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>30</v>
       </c>
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>31</v>
       </c>
+      <c r="B31" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>32</v>
       </c>
+      <c r="B32" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>33</v>
       </c>
+      <c r="B33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>34</v>
       </c>
+      <c r="B34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
@@ -752,8 +817,8 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C47" s="1">
-        <f>(20-5)/20</f>
-        <v>0.75</v>
+        <f>(34-11)/34</f>
+        <v>0.67647058823529416</v>
       </c>
     </row>
   </sheetData>
@@ -762,11 +827,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAEBCE21-863A-4393-BF87-F018BADEB7E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -832,9 +897,12 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="N6" t="e">
+      <c r="B6">
+        <v>0.67</v>
+      </c>
+      <c r="N6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">

--- a/Rita.xlsx
+++ b/Rita.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
   <si>
     <t>A</t>
   </si>
@@ -78,13 +78,13 @@
     <t>Average</t>
   </si>
   <si>
+    <t>A?</t>
+  </si>
+  <si>
+    <t>B?</t>
+  </si>
+  <si>
     <t>C?</t>
-  </si>
-  <si>
-    <t>B?</t>
-  </si>
-  <si>
-    <t>D?</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
@@ -455,7 +455,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -463,7 +463,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -471,7 +474,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -479,10 +485,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -490,7 +493,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -498,7 +501,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -506,7 +512,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -514,10 +520,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -525,7 +528,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -533,7 +536,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -541,7 +544,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>3</v>
@@ -552,7 +555,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -560,7 +563,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -568,7 +574,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -586,13 +592,19 @@
       <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -600,7 +612,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -608,10 +620,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -619,10 +631,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -630,10 +639,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -641,7 +650,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -649,111 +658,63 @@
         <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>24</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>25</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>26</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>27</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>28</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>29</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>30</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>31</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>32</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>33</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>34</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
@@ -817,8 +778,8 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C47" s="1">
-        <f>(34-11)/34</f>
-        <v>0.67647058823529416</v>
+        <f>(23-9)/23</f>
+        <v>0.60869565217391308</v>
       </c>
     </row>
   </sheetData>
@@ -830,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -909,18 +870,24 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="N7" t="e">
+      <c r="B7">
+        <v>0.53</v>
+      </c>
+      <c r="N7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="N8" t="e">
+      <c r="B8">
+        <v>0.6</v>
+      </c>
+      <c r="N8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">

--- a/Rita.xlsx
+++ b/Rita.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP862AR\OneDrive - EY\Desktop\PMP_Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\Desktop\PMP notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292DC44A-2D94-4889-9F96-1702AFD54FFE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Knowledge Areas" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
   <si>
     <t>A</t>
   </si>
@@ -85,12 +86,15 @@
   </si>
   <si>
     <t>C?</t>
+  </si>
+  <si>
+    <t>PM Framework/Process</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -438,10 +442,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
@@ -788,11 +792,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -808,120 +812,135 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B2">
-        <v>0.53</v>
+        <v>0.75</v>
       </c>
       <c r="N2">
         <f>AVERAGE(B2:M2)</f>
-        <v>0.53</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>0.55000000000000004</v>
+        <v>0.53</v>
+      </c>
+      <c r="C3">
+        <v>0.75</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N11" si="0">AVERAGE(B3:M3)</f>
-        <v>0.55000000000000004</v>
+        <f>AVERAGE(B3:M3)</f>
+        <v>0.64</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N12" si="0">AVERAGE(B4:M4)</f>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>0.75</v>
       </c>
-      <c r="N4">
+      <c r="N5">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>0.6</v>
       </c>
-      <c r="N5">
+      <c r="N6">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>0.67</v>
       </c>
-      <c r="N6">
+      <c r="N7">
         <f t="shared" si="0"/>
         <v>0.67</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>0.53</v>
       </c>
-      <c r="N7">
+      <c r="N8">
         <f t="shared" si="0"/>
         <v>0.53</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>0.6</v>
       </c>
-      <c r="N8">
+      <c r="N9">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="N9">
+      <c r="N10">
         <f t="shared" si="0"/>
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>0.43</v>
       </c>
-      <c r="N10">
+      <c r="N11">
         <f t="shared" si="0"/>
         <v>0.43</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>0.75</v>
       </c>
-      <c r="N11">
+      <c r="N12">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>

--- a/Rita.xlsx
+++ b/Rita.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\Desktop\PMP notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292DC44A-2D94-4889-9F96-1702AFD54FFE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B2929E-ED42-4743-B7B7-1D214DC0F9A3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="100" windowWidth="14960" windowHeight="9800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -796,7 +796,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -844,9 +844,12 @@
       <c r="B4">
         <v>0.55000000000000004</v>
       </c>
+      <c r="C4">
+        <v>0.6</v>
+      </c>
       <c r="N4">
         <f t="shared" ref="N4:N12" si="0">AVERAGE(B4:M4)</f>
-        <v>0.55000000000000004</v>
+        <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -856,9 +859,12 @@
       <c r="B5">
         <v>0.75</v>
       </c>
+      <c r="C5">
+        <v>0.8</v>
+      </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.77500000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -866,6 +872,9 @@
         <v>7</v>
       </c>
       <c r="B6">
+        <v>0.6</v>
+      </c>
+      <c r="C6">
         <v>0.6</v>
       </c>
       <c r="N6">

--- a/Rita.xlsx
+++ b/Rita.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\Desktop\PMP notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B2929E-ED42-4743-B7B7-1D214DC0F9A3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C8B7F5-3E0F-4FF1-BBC6-747F48802CFD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="100" windowWidth="14960" windowHeight="9800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,11 +124,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -796,7 +797,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -817,7 +818,7 @@
       <c r="B2">
         <v>0.75</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="2">
         <f>AVERAGE(B2:M2)</f>
         <v>0.75</v>
       </c>
@@ -832,7 +833,7 @@
       <c r="C3">
         <v>0.75</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="2">
         <f>AVERAGE(B3:M3)</f>
         <v>0.64</v>
       </c>
@@ -847,7 +848,7 @@
       <c r="C4">
         <v>0.6</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="2">
         <f t="shared" ref="N4:N12" si="0">AVERAGE(B4:M4)</f>
         <v>0.57499999999999996</v>
       </c>
@@ -862,7 +863,7 @@
       <c r="C5">
         <v>0.8</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="2">
         <f t="shared" si="0"/>
         <v>0.77500000000000002</v>
       </c>
@@ -877,7 +878,7 @@
       <c r="C6">
         <v>0.6</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="2">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
@@ -889,9 +890,12 @@
       <c r="B7">
         <v>0.67</v>
       </c>
-      <c r="N7">
+      <c r="C7">
+        <v>0.6</v>
+      </c>
+      <c r="N7" s="2">
         <f t="shared" si="0"/>
-        <v>0.67</v>
+        <v>0.63500000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
@@ -901,9 +905,12 @@
       <c r="B8">
         <v>0.53</v>
       </c>
-      <c r="N8">
+      <c r="C8">
+        <v>0.75</v>
+      </c>
+      <c r="N8" s="2">
         <f t="shared" si="0"/>
-        <v>0.53</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -913,9 +920,12 @@
       <c r="B9">
         <v>0.6</v>
       </c>
-      <c r="N9">
+      <c r="C9">
+        <v>0.7</v>
+      </c>
+      <c r="N9" s="2">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.64999999999999991</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -925,9 +935,12 @@
       <c r="B10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="N10">
+      <c r="C10">
+        <v>0.6</v>
+      </c>
+      <c r="N10" s="2">
         <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
+        <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
@@ -937,9 +950,12 @@
       <c r="B11">
         <v>0.43</v>
       </c>
-      <c r="N11">
+      <c r="C11">
+        <v>0.6</v>
+      </c>
+      <c r="N11" s="2">
         <f t="shared" si="0"/>
-        <v>0.43</v>
+        <v>0.51500000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
@@ -949,12 +965,16 @@
       <c r="B12">
         <v>0.75</v>
       </c>
-      <c r="N12">
+      <c r="C12">
+        <v>0.7</v>
+      </c>
+      <c r="N12" s="2">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.72499999999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>